--- a/Interface Category.xlsx
+++ b/Interface Category.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Interface_Category"/>
   </sheets>
   <definedNames>
-    <definedName name="Interface_Category">'Interface_Category'!$A$1:$C$11</definedName>
+    <definedName name="Interface_Category">'Interface_Category'!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -409,7 +409,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Concepts to improve the visual presentation of data</t>
+          <t>Requests for visual presentation of data or suggesting ways to do that</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>A Specific Request</t>
+          <t>Specific Request</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>I Want Raw Data</t>
+          <t>I Want Data</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>I Want to Share Information</t>
+          <t>Share Information</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -464,12 +464,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Give Me a Nice API</t>
+          <t>A Nice API</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Suggestions for a programming interface for access to model output</t>
+          <t>Requests for a programming interface for access to model output</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Suggestions for helping users manage complex information</t>
+          <t>Suggestions for documentation, tutorials or other ways to help users</t>
         </is>
       </c>
     </row>
@@ -510,6 +510,26 @@
       <c r="B11" s="0" t="inlineStr">
         <is>
           <t>Other</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Anything Else</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Examples or suggestions for places to look for good examples</t>
         </is>
       </c>
     </row>
